--- a/Output_testing/R1_201907/Country/HKD/MN/TURKMENISTAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TURKMENISTAN_201907_HKD_MN.xlsx
@@ -544,26 +544,34 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.128512</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
       <c r="J7" s="9" t="n">
@@ -625,8 +633,10 @@
       <c r="F9" s="8" t="n">
         <v>1.164711</v>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.087113</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>-68.18197718332328</v>
@@ -653,14 +663,18 @@
       <c r="D10" s="8" t="n">
         <v>1.791383</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.246008</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="F10" s="8" t="n">
         <v>1.926204</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.125734</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-86.26714666824459</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/TURKMENISTAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TURKMENISTAN_201907_HKD_MN.xlsx
@@ -828,136 +828,533 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>43.721841</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>76.2893451357217</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>21.465069</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>76.58069320770501</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>17.638659</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>83.39237117381228</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3.567623</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>63.19235532593556</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-77.20438023738065</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.740021</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.291247490623323</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2.865839</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>10.22442263016607</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1.547208</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>7.314917977556669</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.629759</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>28.86748678984338</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>14.82537269161588</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.4618207535168003</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.1672461307341148</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.212647033400547</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.1263833688413409</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.724704</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.585518578598403</v>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.6437671724951</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MACHINE-TOOLS WORKING BY REMOVING METAL OR OTHER MATERIAL</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.547384396073725</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.149272698444145</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.1271203311614669</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.1135338237089298</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.5265818533754093</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>428.9857651245551</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.202824981872572</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.620373</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.082476145272178</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2409724264724245</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.92359</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.366565513422606</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.31314173629876</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.6521277837393525</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.743576054641014</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.533146307153293</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>11.431922</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>19.94732662384116</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1.997827</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>7.127625658648927</v>
+      </c>
+      <c r="G28" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0.9663234680474669</v>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -989,136 +1386,627 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>COTTON</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>INORGANIC CHEMICAL ELEMENTS, OXIDES AND HALOGEN SALTS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1150,136 +2038,535 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>43.721841</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>76.2893451357217</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>21.465069</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>76.58069320770501</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>17.638659</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>83.90214496634003</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3.567623</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>63.19235532593556</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-77.20438023738065</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.740021</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.291247490623323</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>2.865839</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>10.22442263016607</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1.547208</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>7.359633740245278</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.629759</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>28.86748678984338</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>14.82537269161588</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.4618207535168003</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.1672461307341148</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.212647033400547</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.1263833688413409</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.724704</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.585518578598403</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.6437671724951</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MACHINE-TOOLS WORKING BY REMOVING METAL OR OTHER MATERIAL</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.547384396073725</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.149272698444145</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.1271203311614669</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.1142278508372824</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.5265818533754093</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>428.9857651245551</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.202824981872572</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0.620373</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.082476145272178</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.2409724264724245</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.92359</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.393258130873894</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.71598639083658</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.6521277837393525</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.743576054641014</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.5425183611733</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>11.431922</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>19.94732662384116</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1.997827</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.127625658648927</v>
+      </c>
+      <c r="G54" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>0.9722305596936369</v>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1311,136 +2598,609 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>9.665454159139777</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>10.63406146253804</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1.164711</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-31.2707103859627</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>COTTON</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>2.085184</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>90.049909590959</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>47.01916734303871</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>42.34677119442325</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.2846362499012129</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>INORGANIC CHEMICAL ELEMENTS, OXIDES AND HALOGEN SALTS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
